--- a/Data Viz/China as a Global Creditor - a Data Excercise/data/The time-series data of International Investment Position of China.xlsx
+++ b/Data Viz/China as a Global Creditor - a Data Excercise/data/The time-series data of International Investment Position of China.xlsx
@@ -575,6 +575,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -583,9 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,6 +602,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13386,10 +13390,10 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -13503,7 +13507,7 @@
       <c r="J6" s="21">
         <v>78341.153929442997</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
@@ -15052,38 +15056,38 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
     </row>
@@ -20940,43 +20944,43 @@
       </c>
     </row>
     <row r="59" spans="1:37" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
     </row>
     <row r="60" spans="1:37" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
     </row>
     <row r="61" spans="1:37">
       <c r="A61" s="4" t="s">

--- a/Data Viz/China as a Global Creditor - a Data Excercise/data/The time-series data of International Investment Position of China.xlsx
+++ b/Data Viz/China as a Global Creditor - a Data Excercise/data/The time-series data of International Investment Position of China.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="11_1F4A2ACD877F4218AF2A2C0DB9A56E83742F60D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94149813-3BF0-4056-9105-6C0A706CFE41}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual(USD)" sheetId="3" r:id="rId1"/>
@@ -4464,11 +4464,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="AP5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="AP40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AZ11" sqref="AZ11"/>
+      <selection pane="bottomRight" activeCell="AS57" sqref="AS57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -13389,8 +13389,8 @@
   </sheetPr>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7:A54"/>

--- a/Data Viz/China as a Global Creditor - a Data Excercise/data/The time-series data of International Investment Position of China.xlsx
+++ b/Data Viz/China as a Global Creditor - a Data Excercise/data/The time-series data of International Investment Position of China.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="11_1F4A2ACD877F4218AF2A2C0DB9A56E83742F60D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94149813-3BF0-4056-9105-6C0A706CFE41}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual(USD)" sheetId="3" r:id="rId1"/>
@@ -900,11 +900,11 @@
   </sheetPr>
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46:V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4464,11 +4464,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="AP40" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="AP5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS57" sqref="AS57"/>
+      <selection pane="bottomRight" activeCell="BE5" sqref="BE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2"/>
